--- a/WebAPI/eFMS.API.SystemWeb/SystemManagement/eFMS.API.System/Resources/Files/User-Import.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/SystemManagement/eFMS.API.System/Resources/Files/User-Import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Name EN</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>User Type</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>OPS Staff</t>
   </si>
   <si>
-    <t>Staff</t>
-  </si>
-  <si>
     <t>Local Admin</t>
   </si>
   <si>
@@ -111,6 +105,18 @@
   </si>
   <si>
     <t>Admin FMS1</t>
+  </si>
+  <si>
+    <t>Staff Code</t>
+  </si>
+  <si>
+    <t>0001234</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>0978123456</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +222,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,159 +505,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="O1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>28</v>
       </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/WebAPI/eFMS.API.SystemWeb/SystemManagement/eFMS.API.System/Resources/Files/User-Import.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/SystemManagement/eFMS.API.System/Resources/Files/User-Import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cara.oanh\Desktop\eFMS\Template\Contructor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,56 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
-  <si>
-    <t>Name EN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
-    <t>ITL</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>OPS</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Full Name</t>
-  </si>
-  <si>
-    <t>User Type</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Level Permission</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -107,9 +68,6 @@
     <t>Admin FMS1</t>
   </si>
   <si>
-    <t>Staff Code</t>
-  </si>
-  <si>
     <t>0001234</t>
   </si>
   <si>
@@ -117,13 +75,43 @@
   </si>
   <si>
     <t>0978123456</t>
+  </si>
+  <si>
+    <t>Staff Code*</t>
+  </si>
+  <si>
+    <t>User Name*</t>
+  </si>
+  <si>
+    <t>Full Name*</t>
+  </si>
+  <si>
+    <t>English Name*</t>
+  </si>
+  <si>
+    <t>User Type*</t>
+  </si>
+  <si>
+    <t>Email*</t>
+  </si>
+  <si>
+    <t>Normal User</t>
+  </si>
+  <si>
+    <t>abc@itlvn.com</t>
+  </si>
+  <si>
+    <t>123@itlvn.com</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +123,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,10 +194,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,8 +222,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,174 +505,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>